--- a/HLR.xlsx
+++ b/HLR.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6D7D31-5C9E-43C4-BD6A-2B778BC6A171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACC11DA-CE9E-4B7A-BB2A-F555F9CBD5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D24BB9E-B2C9-44EB-B096-EE7AB95CA385}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2D24BB9E-B2C9-44EB-B096-EE7AB95CA385}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Case" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>HLR(High Level Requirement )</t>
   </si>
@@ -145,6 +147,97 @@
   </si>
   <si>
     <t>The system should provide functionality for managers to securely log in and log out of their accounts</t>
+  </si>
+  <si>
+    <t>Test Scenario: Facebook Login Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile:
+1)Valid Login           
+2)Invalid Email/Phone   
+3)Invalid Password   
+4)Empty Email/Phone   
+5)Empty Password    
+6)Empty Email/Phone and Password  
+7)Remember Me Functionality  
+8)Forgotten Password Link   
+9)Login Button Disabled Initially 
+10)Logout Functionality  
+11)Screen Orientation Change
+12)Password Visibility Toggle  
+13)Network Connectivity Issues  
+14)Login with Biometric Authentication 
+15)App Update Notification 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web:
+1)Valid Login    
+2)Invalid Email/Phone  
+3)Invalid Password  
+4)Empty Email/Phone 
+5)Empty Password 
+6)Empty Email/Phone and Password
+7)Remember Me Functionality
+8)Forgotten Password Link
+9)Login Button Disabled Initially
+10)Logout Functionality  
+11)Browser Compatibility 
+12)Two-Factor Authentication 
+13)Third-Party Login  
+14)Accessibility Testing 
+15)Browser History and Autofill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsive:
+1)Valid Login 
+2)Invalid Email/Phone 
+3)Invalid Password 
+4)Empty Email/Phone 
+5)Empty Password 
+6)Empty Email/Phone and Password
+7)Remember Me Functionality 
+8)Forgotten Password Link 
+9)Login Button Disabled Initially 
+10)Logout Functionality  
+11)Responsive Design Check 
+12)Touchscreen Interaction 
+13)Portrait and Landscape Modes  
+14)Browser Zoom Levels  
+15)Error Message Localization </t>
+  </si>
+  <si>
+    <t>Test Sccenario id</t>
+  </si>
+  <si>
+    <t>Test Scenario name</t>
+  </si>
+  <si>
+    <t>Test Case id</t>
+  </si>
+  <si>
+    <t>Test Case name</t>
+  </si>
+  <si>
+    <t>Per Condition</t>
+  </si>
+  <si>
+    <t>Test Step</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Pass/fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -174,12 +267,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,13 +293,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921D2391-ACD1-47E8-A80D-E76D713601A2}">
   <dimension ref="A2:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -770,4 +873,101 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A302A4-F369-4E2D-B934-61AB9CCAB081}">
+  <dimension ref="A2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="259.2">
+      <c r="A4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA0F46A-0FB4-4EBC-9E81-4E91577012C2}">
+  <dimension ref="A9:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:12">
+      <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>